--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-02_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-02_beg.xlsx
@@ -1008,7 +1008,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">She looked my teammate in the eye and asked, "How hard could it be to be Infected?"
+    <t xml:space="preserve">She looked my teammate in the eye and asked, 'How hard could it be to be Infected?'
 </t>
   </si>
   <si>
